--- a/Excel/ResData.xlsx
+++ b/Excel/ResData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>int</t>
   </si>
@@ -1384,7 +1384,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1575,8 +1575,8 @@
       <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
@@ -1598,8 +1598,8 @@
       <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
+      <c r="D14">
+        <v>4</v>
       </c>
       <c r="E14" t="s">
         <v>43</v>
@@ -1621,8 +1621,8 @@
       <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
-        <v>22</v>
+      <c r="D15">
+        <v>5</v>
       </c>
       <c r="E15" t="s">
         <v>47</v>
@@ -1644,8 +1644,8 @@
       <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
+      <c r="D16">
+        <v>6</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
@@ -1667,8 +1667,8 @@
       <c r="C17" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s">
-        <v>22</v>
+      <c r="D17">
+        <v>7</v>
       </c>
       <c r="E17" t="s">
         <v>55</v>
@@ -1690,8 +1690,8 @@
       <c r="C18" t="s">
         <v>58</v>
       </c>
-      <c r="D18" t="s">
-        <v>22</v>
+      <c r="D18">
+        <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>59</v>
@@ -1713,8 +1713,8 @@
       <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
+      <c r="D19">
+        <v>9</v>
       </c>
       <c r="E19" t="s">
         <v>63</v>
@@ -1736,8 +1736,8 @@
       <c r="C20" t="s">
         <v>66</v>
       </c>
-      <c r="D20" t="s">
-        <v>18</v>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20" t="s">
         <v>67</v>

--- a/Excel/ResData.xlsx
+++ b/Excel/ResData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14940"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>int</t>
   </si>
@@ -59,6 +59,9 @@
     <t>资源的AB方式的包名</t>
   </si>
   <si>
+    <t>资源的后缀</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
     <t>resABPath</t>
   </si>
   <si>
+    <t>assetExtension</t>
+  </si>
+  <si>
     <t>E_ResType</t>
   </si>
   <si>
@@ -152,6 +158,9 @@
     <t>ui</t>
   </si>
   <si>
+    <t>prefab</t>
+  </si>
+  <si>
     <t>Blue</t>
   </si>
   <si>
@@ -162,6 +171,9 @@
   </si>
   <si>
     <t>ArtRes/Materials/Blue</t>
+  </si>
+  <si>
+    <t>mat</t>
   </si>
   <si>
     <t>Green</t>
@@ -1384,20 +1396,20 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.1730769230769" customWidth="1"/>
-    <col min="2" max="3" width="17.3076923076923" customWidth="1"/>
-    <col min="4" max="4" width="16.9903846153846" customWidth="1"/>
-    <col min="5" max="5" width="28.2115384615385" customWidth="1"/>
-    <col min="6" max="6" width="32.3653846153846" customWidth="1"/>
-    <col min="7" max="7" width="37.6538461538462" customWidth="1"/>
-    <col min="8" max="8" width="12.1730769230769" customWidth="1"/>
-    <col min="9" max="9" width="13.6153846153846" customWidth="1"/>
-    <col min="10" max="10" width="15.8557692307692" customWidth="1"/>
+    <col min="1" max="1" width="12.1759259259259" customWidth="1"/>
+    <col min="2" max="3" width="17.3055555555556" customWidth="1"/>
+    <col min="4" max="4" width="16.9907407407407" customWidth="1"/>
+    <col min="5" max="5" width="28.212962962963" customWidth="1"/>
+    <col min="6" max="6" width="32.3611111111111" customWidth="1"/>
+    <col min="7" max="7" width="37.6574074074074" customWidth="1"/>
+    <col min="8" max="8" width="15.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="13.6111111111111" customWidth="1"/>
+    <col min="10" max="10" width="15.8518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1422,6 +1434,9 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" ht="101" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -1445,33 +1460,39 @@
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1503,34 +1524,34 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1538,31 +1559,31 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1570,22 +1591,25 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1593,22 +1617,25 @@
         <v>10001</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:10">
@@ -1616,22 +1643,25 @@
         <v>10002</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
         <v>48</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
@@ -1639,114 +1669,129 @@
         <v>10003</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:7">
+    <row r="17" customFormat="1" spans="1:8">
       <c r="A17">
         <v>10004</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:7">
+    <row r="18" customFormat="1" spans="1:8">
       <c r="A18">
         <v>10005</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:7">
+    <row r="19" customFormat="1" spans="1:8">
       <c r="A19">
         <v>10006</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>20001</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
